--- a/TechnicalDataPackage/Components/MAX31856/MAX31856Notes.xlsx
+++ b/TechnicalDataPackage/Components/MAX31856/MAX31856Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LumArduinoSDK\TechnicalDataPackage\Components\MAX31856\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A456BFA-55F1-4C27-9404-F736FA117766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B483E9C-C4B2-470E-8DF0-5B2AB4F43008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="17640" xr2:uid="{57CDE3BB-2AA3-4D49-92C5-668BB4824D4D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{57CDE3BB-2AA3-4D49-92C5-668BB4824D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MSB</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>2^12</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Binary</t>
   </si>
 </sst>
 </file>
@@ -139,12 +148,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,521 +488,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC916075-38B2-4031-A459-D6000E8EA27F}">
-  <dimension ref="A2:T28"/>
+  <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>127.984375</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>VALUE(B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3)</f>
+        <v>111111111111100</v>
+      </c>
+      <c r="S3" t="e">
+        <f>BIN2DEC(R3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>127</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R15" si="0">VALUE(B4&amp;C4&amp;D4&amp;E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4)</f>
+        <v>111111100000000</v>
+      </c>
+      <c r="S4" t="e">
+        <f t="shared" ref="S4:S15" si="1">BIN2DEC(R4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>111111100000000</v>
+      </c>
+      <c r="S5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1100100000000</v>
+      </c>
+      <c r="S6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="T7">
+        <f>S7/256</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <f>S8/256</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>-55</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1100100100000000</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>-64</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="19" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S19" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U18" t="s">
         <v>3</v>
       </c>
-      <c r="T19" s="4">
+      <c r="V18" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="20" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S20" t="s">
+    <row r="19" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U19" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="4">
+      <c r="V19" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S22" t="s">
+    <row r="21" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U21" t="s">
         <v>9</v>
       </c>
-      <c r="T22">
-        <f>2^T20</f>
+      <c r="V21">
+        <f>2^V19</f>
         <v>16384</v>
       </c>
     </row>
-    <row r="23" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S23" t="s">
+    <row r="22" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U22" t="s">
         <v>7</v>
       </c>
-      <c r="T23">
-        <f>T22/2</f>
+      <c r="V22">
+        <f>V21/2</f>
         <v>8192</v>
       </c>
     </row>
-    <row r="24" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S24" t="s">
+    <row r="23" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U23" t="s">
         <v>8</v>
       </c>
-      <c r="T24">
-        <f>T22/2</f>
+      <c r="V23">
+        <f>V21/2</f>
         <v>8192</v>
       </c>
     </row>
-    <row r="26" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S26" t="s">
+    <row r="25" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U25" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="4">
+      <c r="V25" s="3">
         <v>-64</v>
       </c>
     </row>
-    <row r="27" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S27" t="s">
+    <row r="26" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U26" t="s">
         <v>11</v>
       </c>
-      <c r="T27">
-        <f>ABS(T26)/T19</f>
+      <c r="V26">
+        <f>ABS(V25)/V18</f>
         <v>4096</v>
       </c>
     </row>
-    <row r="28" spans="19:20" x14ac:dyDescent="0.35">
-      <c r="S28" t="s">
+    <row r="27" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="U27" t="s">
         <v>12</v>
       </c>
-      <c r="T28">
+      <c r="V27">
         <f>2^12</f>
         <v>4096</v>
+      </c>
+    </row>
+    <row r="29" spans="21:22" x14ac:dyDescent="0.35">
+      <c r="V29">
+        <f>V18*V22</f>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/TechnicalDataPackage/Components/MAX31856/MAX31856Notes.xlsx
+++ b/TechnicalDataPackage/Components/MAX31856/MAX31856Notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LumArduinoSDK\TechnicalDataPackage\Components\MAX31856\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B700C40-7608-442A-AB98-5C7F0239F1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46566BB8-73D6-43DC-9403-DC903CAC182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="-16500" windowWidth="29040" windowHeight="16440" xr2:uid="{57CDE3BB-2AA3-4D49-92C5-668BB4824D4D}"/>
+    <workbookView xWindow="330" yWindow="705" windowWidth="26235" windowHeight="18405" activeTab="1" xr2:uid="{57CDE3BB-2AA3-4D49-92C5-668BB4824D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
+    <sheet name="RelevantCodes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="63">
   <si>
     <t>MSB</t>
   </si>
@@ -90,13 +91,170 @@
   </si>
   <si>
     <t>LSB as uint8</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>0x50</t>
+  </si>
+  <si>
+    <t>CMODE</t>
+  </si>
+  <si>
+    <t>1SHOT</t>
+  </si>
+  <si>
+    <t>OCFAULT1</t>
+  </si>
+  <si>
+    <t>OCFAULT0</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>FAULT</t>
+  </si>
+  <si>
+    <t>FAULTCLR</t>
+  </si>
+  <si>
+    <t>50/60Hz</t>
+  </si>
+  <si>
+    <t>CR0 Register</t>
+  </si>
+  <si>
+    <t>CR1 Register</t>
+  </si>
+  <si>
+    <t>AVGSEL2</t>
+  </si>
+  <si>
+    <t>AVGSEL1</t>
+  </si>
+  <si>
+    <t>AVGSEL0</t>
+  </si>
+  <si>
+    <t>TCTYPE3</t>
+  </si>
+  <si>
+    <t>TCTYPE2</t>
+  </si>
+  <si>
+    <t>TCTYPE1</t>
+  </si>
+  <si>
+    <t>TCTYPE0</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>SPI_OneShot</t>
+  </si>
+  <si>
+    <t>AdafruitOneShot</t>
+  </si>
+  <si>
+    <t>CJTO Register</t>
+  </si>
+  <si>
+    <t>CJTO7</t>
+  </si>
+  <si>
+    <t>CJTO6</t>
+  </si>
+  <si>
+    <t>CJTO4</t>
+  </si>
+  <si>
+    <t>CJTO5</t>
+  </si>
+  <si>
+    <t>CJTO3</t>
+  </si>
+  <si>
+    <t>CJTO2</t>
+  </si>
+  <si>
+    <t>CJTO1</t>
+  </si>
+  <si>
+    <t>CJTO0</t>
+  </si>
+  <si>
+    <t>MAX31856_CR0_OCFAULT0</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>AVGSEL</t>
+  </si>
+  <si>
+    <t>MAX31856_TCTYPE_K</t>
+  </si>
+  <si>
+    <t>MISC VALUES</t>
+  </si>
+  <si>
+    <t>AdafruitOneShot.ino has this value at end of loop</t>
+  </si>
+  <si>
+    <t>AdafruitOneShot has this</t>
+  </si>
+  <si>
+    <t>0x80</t>
+  </si>
+  <si>
+    <r>
+      <t>MAX31856_CR0_AUTOCONVERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <r>
+      <t>MAX31856_CR0_1SHOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>0x28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +270,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6F008A"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +302,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,24 +358,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,6 +445,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>421585</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A6DCC4-B1C5-635C-8058-B2209B710EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9290539" y="468922"/>
+          <a:ext cx="2048161" cy="1057423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>227134</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>270995</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>182990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3058316-158C-E0EC-5543-575E00DE1FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9319846" y="1582616"/>
+          <a:ext cx="9774014" cy="3934374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC916075-38B2-4031-A459-D6000E8EA27F}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="Q14" sqref="B6:Q14"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,43 +878,43 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6" t="s">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -834,205 +1163,205 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="10">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>1</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
         <v>1</v>
       </c>
       <c r="R9" s="3">
@@ -1044,288 +1373,288 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
         <v>0</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <v>1</v>
-      </c>
-      <c r="P11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="10">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8">
         <v>1</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10">
-        <v>1</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <v>1</v>
-      </c>
-      <c r="P12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="10">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
         <v>0</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10">
-        <v>1</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
-        <v>1</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
         <v>1</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <v>1</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
         <v>0</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
@@ -1741,7 +2070,7 @@
       <c r="Q22" s="2">
         <v>0</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="6">
         <v>-16384</v>
       </c>
       <c r="S22">
@@ -1802,17 +2131,13 @@
       <c r="Q23" s="2">
         <v>1</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <v>-16385</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23">
         <f t="shared" si="0"/>
         <v>-64.00390625</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1866,17 +2191,13 @@
       <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>-25600</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2012,4 +2333,2055 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50539A3A-C4CD-494E-AC70-686D3DA458EC}">
+  <dimension ref="A1:V56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="M2" s="5">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>3</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L6" s="5"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>164</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>164</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>128</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>16</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>115</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" t="s">
+        <v>49</v>
+      </c>
+      <c r="T30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" t="s">
+        <v>48</v>
+      </c>
+      <c r="S34" t="s">
+        <v>49</v>
+      </c>
+      <c r="T34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>109</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>104</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>111</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U44" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U45" s="22"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U48" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>113</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>115</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>185</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TechnicalDataPackage/Components/MAX31856/MAX31856Notes.xlsx
+++ b/TechnicalDataPackage/Components/MAX31856/MAX31856Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LumArduinoSDK\TechnicalDataPackage\Components\MAX31856\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46566BB8-73D6-43DC-9403-DC903CAC182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20402EB-D4E4-402B-A33C-5841B732459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="705" windowWidth="26235" windowHeight="18405" activeTab="1" xr2:uid="{57CDE3BB-2AA3-4D49-92C5-668BB4824D4D}"/>
+    <workbookView xWindow="585" yWindow="840" windowWidth="26235" windowHeight="18405" activeTab="1" xr2:uid="{57CDE3BB-2AA3-4D49-92C5-668BB4824D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>AdafruitOneShot.ino has this value at end of loop</t>
   </si>
   <si>
-    <t>AdafruitOneShot has this</t>
-  </si>
-  <si>
     <t>0x80</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>0x28</t>
+  </si>
+  <si>
+    <t>AdafruitOneShot has this at start and end of loop</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9290539" y="468922"/>
-          <a:ext cx="2048161" cy="1057423"/>
+          <a:off x="9263386" y="468922"/>
+          <a:ext cx="2039111" cy="1057423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -496,15 +496,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>227134</xdr:colOff>
+      <xdr:colOff>227135</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>270995</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>182990</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -527,8 +527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9319846" y="1582616"/>
-          <a:ext cx="9774014" cy="3934374"/>
+          <a:off x="9292694" y="1582616"/>
+          <a:ext cx="8491042" cy="3434898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50539A3A-C4CD-494E-AC70-686D3DA458EC}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3377,7 +3377,7 @@
         <v>29</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
         <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4064,7 +4064,7 @@
         <v>29</v>
       </c>
       <c r="U43" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>29</v>
       </c>
       <c r="U44" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>0</v>
